--- a/biology/Botanique/Bertholletia/Bertholletia.xlsx
+++ b/biology/Botanique/Bertholletia/Bertholletia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bertholletia est un genre de plante à fleurs de la famille des Lecythidaceae. Il ne comprend qu'une ou deux espèces originaires de la zone tropicale de l'Amérique du Sud. Ce genre a été nommé ainsi par Aimé Bonpland en hommage à son ami chimiste Claude Louis Berthollet « à qui l'on doit tant de découvertes, et dont les travaux actuels promettent beaucoup à la physiologie et à la chimie des végétaux »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bertholletia est un genre de plante à fleurs de la famille des Lecythidaceae. Il ne comprend qu'une ou deux espèces originaires de la zone tropicale de l'Amérique du Sud. Ce genre a été nommé ainsi par Aimé Bonpland en hommage à son ami chimiste Claude Louis Berthollet « à qui l'on doit tant de découvertes, et dont les travaux actuels promettent beaucoup à la physiologie et à la chimie des végétaux ».
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GRIN            (21 février 2016)[2] et Tropicos                                           (21 février 2016)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (21 février 2016) et Tropicos                                           (21 février 2016) :
 Bertholletia excelsa Humb. &amp; Bonpl. - noyer du Brésil ou noyer d'Amazonie
-Selon World Checklist of Selected Plant Families (WCSP)  (21 février 2016)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (21 février 2016) :
 Bertholletia excelsa Bonpl. (1808)
 On rencontre aussi, selon les botanistes :
 Bertholletia nobilis Miers, synonyme de Bertholletia excelsa Bonpl.
